--- a/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
+++ b/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D3A57-7825-4AEB-ABB9-D17254DDB76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB2EE2-B78E-4792-9337-76DF1BD9FA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
@@ -613,10 +613,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
     <col min="3" max="3" width="24.81640625" customWidth="1"/>
@@ -649,7 +649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>

--- a/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
+++ b/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB2EE2-B78E-4792-9337-76DF1BD9FA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353ABFA0-86BC-4BA5-90FC-583EB1DC0CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
@@ -613,10 +613,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.1796875" customWidth="1"/>
     <col min="3" max="3" width="24.81640625" customWidth="1"/>
@@ -649,7 +649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" hidden="1" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -831,7 +831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -857,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="20" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>

--- a/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
+++ b/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353ABFA0-86BC-4BA5-90FC-583EB1DC0CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C156A0E-0A5C-4C51-8580-8BCBC0D248A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D540C2-DE11-4CA0-8629-81203C1F6428}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,6 +961,18 @@
         <v>8</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f>111/24</f>
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f>60/24</f>
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
+++ b/ProyectoAgo20/DistribucionProyectoAgo20_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Redes1\ProyectoAgo20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C156A0E-0A5C-4C51-8580-8BCBC0D248A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053E988-5155-49B0-ADBB-050538E3A3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6EED8FA-9048-4549-8806-9AF43ADDB342}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
